--- a/Code/Plotting in R/Data/EctopicExpression_R_Import.xlsx
+++ b/Code/Plotting in R/Data/EctopicExpression_R_Import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/astrasb/Box Sync/Lab_Hallem/Astra/Writing/Bryant et al 20xx/Data/Calcium Imaging/Ectopic Expression/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/astrasb/Documents/RStudio/Bryant_et_al_2021/Code/Plotting in R/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C9AC76-3BD2-E94F-A0D3-5AB0FE70732E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A087F1-DEDE-0347-B195-FD86C60805D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11360" yWindow="640" windowWidth="24680" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3140" yWindow="3460" windowWidth="24680" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="82" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="111" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1588,7 +1588,7 @@
         <v>58</v>
       </c>
       <c r="D43">
-        <v>23.4</v>
+        <v>24</v>
       </c>
       <c r="E43" s="4">
         <v>37.200000000000003</v>
@@ -1605,7 +1605,7 @@
         <v>59</v>
       </c>
       <c r="D44">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="E44" s="4">
         <v>39.9</v>
@@ -1639,7 +1639,7 @@
         <v>61</v>
       </c>
       <c r="D46">
-        <v>39.950000000000003</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="E46" s="4">
         <v>40</v>
@@ -1656,7 +1656,7 @@
         <v>62</v>
       </c>
       <c r="D47">
-        <v>31.6</v>
+        <v>31</v>
       </c>
       <c r="E47" s="4">
         <v>40.200000000000003</v>
@@ -1673,7 +1673,7 @@
         <v>63</v>
       </c>
       <c r="D48">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="E48" s="4">
         <v>36.200000000000003</v>
@@ -1690,7 +1690,7 @@
         <v>64</v>
       </c>
       <c r="D49">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="E49" s="4">
         <v>40.1</v>
@@ -1707,7 +1707,7 @@
         <v>65</v>
       </c>
       <c r="D50">
-        <v>21.6</v>
+        <v>21.55</v>
       </c>
       <c r="E50" s="4">
         <v>36.299999999999997</v>
@@ -1724,7 +1724,7 @@
         <v>66</v>
       </c>
       <c r="D51">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="E51" s="4">
         <v>36.700000000000003</v>
@@ -1740,12 +1740,6 @@
       <c r="C52" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D52">
-        <v>39.9</v>
-      </c>
-      <c r="E52" s="4">
-        <v>40</v>
-      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
@@ -1775,7 +1769,7 @@
         <v>69</v>
       </c>
       <c r="D54">
-        <v>29.45</v>
+        <v>29.4</v>
       </c>
       <c r="E54" s="4">
         <v>39.5</v>
@@ -1792,7 +1786,7 @@
         <v>70</v>
       </c>
       <c r="D55">
-        <v>27.05</v>
+        <v>27.3</v>
       </c>
       <c r="E55" s="4">
         <v>39.849999999999994</v>

--- a/Code/Plotting in R/Data/EctopicExpression_R_Import.xlsx
+++ b/Code/Plotting in R/Data/EctopicExpression_R_Import.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/astrasb/Documents/RStudio/Bryant_et_al_2021/Code/Plotting in R/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A087F1-DEDE-0347-B195-FD86C60805D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE6523E-9DC8-314F-B1E2-0E09448336BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3140" yWindow="3460" windowWidth="24680" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="139">
   <si>
     <t>Exp.UIDs</t>
   </si>
@@ -323,48 +323,6 @@
     <t>XL115</t>
   </si>
   <si>
-    <t>201020_001</t>
-  </si>
-  <si>
-    <t>201020_002</t>
-  </si>
-  <si>
-    <t>201020_003</t>
-  </si>
-  <si>
-    <t>201020_004</t>
-  </si>
-  <si>
-    <t>201020_005</t>
-  </si>
-  <si>
-    <t>201023_001</t>
-  </si>
-  <si>
-    <t>201023_002</t>
-  </si>
-  <si>
-    <t>201023_003</t>
-  </si>
-  <si>
-    <t>201104_003</t>
-  </si>
-  <si>
-    <t>201104_005</t>
-  </si>
-  <si>
-    <t>201104_007</t>
-  </si>
-  <si>
-    <t>201107_001</t>
-  </si>
-  <si>
-    <t>201107_002</t>
-  </si>
-  <si>
-    <t>201107_003</t>
-  </si>
-  <si>
     <t>XL115/XL115</t>
   </si>
   <si>
@@ -384,9 +342,6 @@
   </si>
   <si>
     <t>201207_005</t>
-  </si>
-  <si>
-    <t>201207_001</t>
   </si>
   <si>
     <t>210104_001</t>
@@ -914,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="111" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -988,7 +943,7 @@
         <v>96</v>
       </c>
       <c r="D4">
-        <v>35.199999999999996</v>
+        <v>32.300000000000004</v>
       </c>
       <c r="E4" s="4">
         <v>40.150000000000006</v>
@@ -1005,7 +960,7 @@
         <v>95</v>
       </c>
       <c r="D5">
-        <v>32.699999999999996</v>
+        <v>31.5</v>
       </c>
       <c r="E5" s="4">
         <v>40.1</v>
@@ -1073,7 +1028,7 @@
         <v>91</v>
       </c>
       <c r="D9">
-        <v>36.799999999999997</v>
+        <v>35</v>
       </c>
       <c r="E9" s="4">
         <v>39.700000000000003</v>
@@ -1107,7 +1062,7 @@
         <v>39</v>
       </c>
       <c r="D11">
-        <v>30.6</v>
+        <v>29.5</v>
       </c>
       <c r="E11" s="4">
         <v>39.9</v>
@@ -1152,7 +1107,7 @@
         <v>36</v>
       </c>
       <c r="D14">
-        <v>26.3</v>
+        <v>22.55</v>
       </c>
       <c r="E14" s="4">
         <v>40.1</v>
@@ -1169,7 +1124,7 @@
         <v>33</v>
       </c>
       <c r="D15">
-        <v>30.2</v>
+        <v>25.45</v>
       </c>
       <c r="E15" s="4">
         <v>39.9</v>
@@ -1288,6 +1243,12 @@
       <c r="C22" s="4" t="s">
         <v>88</v>
       </c>
+      <c r="D22">
+        <v>39.4</v>
+      </c>
+      <c r="E22">
+        <v>40.200000000000003</v>
+      </c>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1336,7 +1297,7 @@
         <v>85</v>
       </c>
       <c r="D25">
-        <v>37.1</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="E25" s="4">
         <v>40</v>
@@ -1369,6 +1330,12 @@
       <c r="C27" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="D27">
+        <v>40.1</v>
+      </c>
+      <c r="E27">
+        <v>40</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
@@ -1378,7 +1345,7 @@
         <v>73</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D28">
         <v>39.700000000000003</v>
@@ -1395,10 +1362,10 @@
         <v>73</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D29">
-        <v>38.200000000000003</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="E29">
         <v>40</v>
@@ -1412,7 +1379,7 @@
         <v>73</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D30">
         <v>22.2</v>
@@ -1429,7 +1396,7 @@
         <v>73</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D31">
         <v>30.6</v>
@@ -1481,6 +1448,12 @@
       <c r="C35" s="4" t="s">
         <v>78</v>
       </c>
+      <c r="D35">
+        <v>39.75</v>
+      </c>
+      <c r="E35">
+        <v>40.1</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -1537,6 +1510,12 @@
       <c r="C39" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="D39">
+        <v>24.2</v>
+      </c>
+      <c r="E39">
+        <v>40</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
@@ -1548,6 +1527,12 @@
       <c r="C40" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="D40">
+        <v>40</v>
+      </c>
+      <c r="E40">
+        <v>40.1</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
@@ -1740,6 +1725,12 @@
       <c r="C52" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="D52">
+        <v>40</v>
+      </c>
+      <c r="E52">
+        <v>40</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
@@ -1786,7 +1777,7 @@
         <v>70</v>
       </c>
       <c r="D55">
-        <v>27.3</v>
+        <v>24.15</v>
       </c>
       <c r="E55" s="4">
         <v>39.849999999999994</v>
@@ -1939,7 +1930,7 @@
         <v>50</v>
       </c>
       <c r="D64">
-        <v>25.25</v>
+        <v>23.2</v>
       </c>
       <c r="E64" s="4">
         <v>40</v>
@@ -2094,168 +2085,138 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>100</v>
-      </c>
+      <c r="C74" s="4"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="C75" s="4"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>102</v>
-      </c>
+      <c r="C76" s="4"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="C77" s="4"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="C78" s="4"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="C79" s="4"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="C80" s="4"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="C81" s="4"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="C82" s="4"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>109</v>
-      </c>
+      <c r="C83" s="4"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>110</v>
-      </c>
+      <c r="C84" s="4"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="C85" s="4"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="C86" s="4"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B87" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>113</v>
-      </c>
+      <c r="C87" s="4"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="C88" s="4"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
@@ -2265,10 +2226,10 @@
         <v>21</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D89">
-        <v>30.6</v>
+        <v>28</v>
       </c>
       <c r="E89">
         <v>39.799999999999997</v>
@@ -2282,7 +2243,7 @@
         <v>21</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="D90">
         <v>28.6</v>
@@ -2299,7 +2260,7 @@
         <v>21</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D91">
         <v>32</v>
@@ -2316,7 +2277,7 @@
         <v>21</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D92">
         <v>32.950000000000003</v>
@@ -2333,7 +2294,7 @@
         <v>21</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D93">
         <v>32.799999999999997</v>
@@ -2350,7 +2311,7 @@
         <v>21</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D94">
         <v>33.9</v>
@@ -2367,7 +2328,7 @@
         <v>21</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -2378,7 +2339,7 @@
         <v>21</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D96">
         <v>31.4</v>
@@ -2395,7 +2356,7 @@
         <v>21</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D97">
         <v>31.7</v>
@@ -2412,7 +2373,7 @@
         <v>21</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D98">
         <v>31</v>
@@ -2429,7 +2390,7 @@
         <v>21</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2440,7 +2401,7 @@
         <v>21</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D100">
         <v>32.9</v>
@@ -2457,7 +2418,7 @@
         <v>21</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D101">
         <v>32.799999999999997</v>
@@ -2474,7 +2435,7 @@
         <v>21</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D102">
         <v>32.700000000000003</v>
@@ -2491,7 +2452,7 @@
         <v>21</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D103">
         <v>32.950000000000003</v>
@@ -2508,7 +2469,7 @@
         <v>21</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D104">
         <v>31.4</v>
@@ -2525,7 +2486,7 @@
         <v>21</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D105">
         <v>31</v>
@@ -2539,10 +2500,10 @@
         <v>22</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D106">
         <v>32.150000000000006</v>
@@ -2556,13 +2517,13 @@
         <v>22</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D107">
-        <v>32.1</v>
+        <v>28.05</v>
       </c>
       <c r="E107">
         <v>37.700000000000003</v>
@@ -2573,10 +2534,10 @@
         <v>22</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -2584,10 +2545,10 @@
         <v>22</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D109">
         <v>31.3</v>
@@ -2601,10 +2562,10 @@
         <v>22</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D110">
         <v>30.2</v>
@@ -2618,10 +2579,10 @@
         <v>22</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D111">
         <v>29.4</v>
@@ -2635,10 +2596,10 @@
         <v>22</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D112">
         <v>32.200000000000003</v>
@@ -2652,10 +2613,10 @@
         <v>22</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="D113">
         <v>31.6</v>
@@ -2669,10 +2630,10 @@
         <v>22</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D114">
         <v>31.6</v>
@@ -2686,10 +2647,10 @@
         <v>22</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -2697,10 +2658,10 @@
         <v>22</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D116">
         <v>34.1</v>
@@ -2714,10 +2675,10 @@
         <v>22</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D117">
         <v>31.5</v>
@@ -2731,10 +2692,10 @@
         <v>22</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D118">
         <v>31.4</v>
@@ -2881,10 +2842,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C3">
         <v>20</v>
